--- a/Lab 6/Data/Run_1.xlsx
+++ b/Lab 6/Data/Run_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Desired</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>kd: 5</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -354,225 +357,225 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$74</c:f>
+              <c:f>Sheet1!$F$3:$F$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>203</c:v>
+                  <c:v>-158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175</c:v>
+                  <c:v>-130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>-125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169</c:v>
+                  <c:v>-124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162</c:v>
+                  <c:v>-117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151</c:v>
+                  <c:v>-106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>-99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>-93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>-91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133</c:v>
+                  <c:v>-88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129</c:v>
+                  <c:v>-84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126</c:v>
+                  <c:v>-81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>123</c:v>
+                  <c:v>-78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>118</c:v>
+                  <c:v>-73</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104</c:v>
+                  <c:v>-59</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102</c:v>
+                  <c:v>-57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101</c:v>
+                  <c:v>-56</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97</c:v>
+                  <c:v>-52</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>92</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>89</c:v>
+                  <c:v>-44</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>86</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>83</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>82</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>77</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>73</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>67</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,225 +815,225 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$74</c:f>
+              <c:f>Sheet1!$B$3:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,11 +1048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="35979264"/>
-        <c:axId val="35977472"/>
+        <c:axId val="89733376"/>
+        <c:axId val="89739648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35979264"/>
+        <c:axId val="89733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,14 +1081,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35977472"/>
+        <c:crossAx val="89739648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35977472"/>
+        <c:axId val="89739648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1101,7 +1105,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Heading (degrees)</a:t>
+                  <a:t>Heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1113,7 +1117,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35979264"/>
+        <c:crossAx val="89733376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1452,20 +1456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B3" sqref="B3:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1478,8 +1482,14 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>45</v>
       </c>
@@ -1489,8 +1499,15 @@
       <c r="E3">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>C3-D3</f>
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>45</v>
       </c>
@@ -1500,8 +1517,15 @@
       <c r="E4">
         <v>800</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">C4-D4</f>
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>45</v>
       </c>
@@ -1511,8 +1535,15 @@
       <c r="E5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>45</v>
       </c>
@@ -1522,8 +1553,15 @@
       <c r="E6">
         <v>1600</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>45</v>
       </c>
@@ -1533,8 +1571,15 @@
       <c r="E7">
         <v>2400</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>45</v>
       </c>
@@ -1544,8 +1589,15 @@
       <c r="E8">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>45</v>
       </c>
@@ -1555,8 +1607,15 @@
       <c r="E9">
         <v>3200</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>45</v>
       </c>
@@ -1566,8 +1625,15 @@
       <c r="E10">
         <v>3600</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>45</v>
       </c>
@@ -1577,8 +1643,15 @@
       <c r="E11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>45</v>
       </c>
@@ -1588,8 +1661,15 @@
       <c r="E12">
         <v>4400</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>45</v>
       </c>
@@ -1599,8 +1679,15 @@
       <c r="E13">
         <v>4800</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>45</v>
       </c>
@@ -1610,8 +1697,15 @@
       <c r="E14">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>45</v>
       </c>
@@ -1621,8 +1715,15 @@
       <c r="E15">
         <v>5600</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>45</v>
       </c>
@@ -1632,8 +1733,15 @@
       <c r="E16">
         <v>6000</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>45</v>
       </c>
@@ -1643,8 +1751,15 @@
       <c r="E17">
         <v>6400</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>45</v>
       </c>
@@ -1654,8 +1769,15 @@
       <c r="E18">
         <v>6800</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>45</v>
       </c>
@@ -1665,8 +1787,15 @@
       <c r="E19">
         <v>7200</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>45</v>
       </c>
@@ -1676,8 +1805,15 @@
       <c r="E20">
         <v>7600</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>45</v>
       </c>
@@ -1687,8 +1823,15 @@
       <c r="E21">
         <v>8000</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>45</v>
       </c>
@@ -1698,8 +1841,15 @@
       <c r="E22">
         <v>8400</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>45</v>
       </c>
@@ -1709,8 +1859,15 @@
       <c r="E23">
         <v>8800</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>45</v>
       </c>
@@ -1720,8 +1877,15 @@
       <c r="E24">
         <v>9200</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>45</v>
       </c>
@@ -1731,8 +1895,15 @@
       <c r="E25">
         <v>9600</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>45</v>
       </c>
@@ -1742,8 +1913,15 @@
       <c r="E26">
         <v>10000</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>45</v>
       </c>
@@ -1753,8 +1931,15 @@
       <c r="E27">
         <v>10400</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>45</v>
       </c>
@@ -1764,8 +1949,15 @@
       <c r="E28">
         <v>10800</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>45</v>
       </c>
@@ -1775,8 +1967,15 @@
       <c r="E29">
         <v>11200</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>45</v>
       </c>
@@ -1786,8 +1985,15 @@
       <c r="E30">
         <v>11600</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>45</v>
       </c>
@@ -1797,8 +2003,15 @@
       <c r="E31">
         <v>11600</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>45</v>
       </c>
@@ -1808,8 +2021,15 @@
       <c r="E32">
         <v>12000</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>45</v>
       </c>
@@ -1819,8 +2039,15 @@
       <c r="E33">
         <v>12400</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>45</v>
       </c>
@@ -1830,8 +2057,15 @@
       <c r="E34">
         <v>12800</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>45</v>
       </c>
@@ -1841,8 +2075,15 @@
       <c r="E35">
         <v>13200</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>45</v>
       </c>
@@ -1852,8 +2093,15 @@
       <c r="E36">
         <v>13600</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>45</v>
       </c>
@@ -1863,8 +2111,15 @@
       <c r="E37">
         <v>14000</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>45</v>
       </c>
@@ -1874,8 +2129,15 @@
       <c r="E38">
         <v>14400</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>45</v>
       </c>
@@ -1885,8 +2147,15 @@
       <c r="E39">
         <v>14800</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>45</v>
       </c>
@@ -1896,8 +2165,15 @@
       <c r="E40">
         <v>15200</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>45</v>
       </c>
@@ -1907,8 +2183,15 @@
       <c r="E41">
         <v>15600</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>45</v>
       </c>
@@ -1918,8 +2201,15 @@
       <c r="E42">
         <v>16000</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>45</v>
       </c>
@@ -1929,8 +2219,15 @@
       <c r="E43">
         <v>16800</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>45</v>
       </c>
@@ -1940,8 +2237,15 @@
       <c r="E44">
         <v>17600</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>45</v>
       </c>
@@ -1951,8 +2255,15 @@
       <c r="E45">
         <v>18400</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>45</v>
       </c>
@@ -1962,8 +2273,15 @@
       <c r="E46">
         <v>19200</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>45</v>
       </c>
@@ -1973,8 +2291,15 @@
       <c r="E47">
         <v>20000</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>45</v>
       </c>
@@ -1984,8 +2309,15 @@
       <c r="E48">
         <v>20400</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>45</v>
       </c>
@@ -1995,8 +2327,15 @@
       <c r="E49">
         <v>20800</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>45</v>
       </c>
@@ -2006,8 +2345,15 @@
       <c r="E50">
         <v>21200</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="C51">
         <v>45</v>
       </c>
@@ -2017,8 +2363,15 @@
       <c r="E51">
         <v>21600</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>45</v>
       </c>
@@ -2028,8 +2381,15 @@
       <c r="E52">
         <v>22000</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
       <c r="C53">
         <v>45</v>
       </c>
@@ -2039,8 +2399,15 @@
       <c r="E53">
         <v>22400</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>45</v>
       </c>
@@ -2050,8 +2417,15 @@
       <c r="E54">
         <v>23200</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>45</v>
       </c>
@@ -2061,8 +2435,15 @@
       <c r="E55">
         <v>23600</v>
       </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>45</v>
       </c>
@@ -2072,8 +2453,15 @@
       <c r="E56">
         <v>24000</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="C57">
         <v>45</v>
       </c>
@@ -2083,8 +2471,15 @@
       <c r="E57">
         <v>24400</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>45</v>
       </c>
@@ -2094,8 +2489,15 @@
       <c r="E58">
         <v>24800</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
       <c r="C59">
         <v>45</v>
       </c>
@@ -2105,8 +2507,15 @@
       <c r="E59">
         <v>25200</v>
       </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>45</v>
       </c>
@@ -2116,8 +2525,15 @@
       <c r="E60">
         <v>25600</v>
       </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>45</v>
       </c>
@@ -2127,8 +2543,15 @@
       <c r="E61">
         <v>26000</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
       <c r="C62">
         <v>45</v>
       </c>
@@ -2138,8 +2561,15 @@
       <c r="E62">
         <v>26400</v>
       </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
       <c r="C63">
         <v>45</v>
       </c>
@@ -2149,8 +2579,15 @@
       <c r="E63">
         <v>26800</v>
       </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
       <c r="C64">
         <v>45</v>
       </c>
@@ -2160,8 +2597,15 @@
       <c r="E64">
         <v>27200</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
       <c r="C65">
         <v>45</v>
       </c>
@@ -2171,8 +2615,15 @@
       <c r="E65">
         <v>27600</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
       <c r="C66">
         <v>45</v>
       </c>
@@ -2182,8 +2633,15 @@
       <c r="E66">
         <v>28000</v>
       </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
       <c r="C67">
         <v>45</v>
       </c>
@@ -2193,8 +2651,15 @@
       <c r="E67">
         <v>28400</v>
       </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68">
         <v>45</v>
       </c>
@@ -2204,8 +2669,15 @@
       <c r="E68">
         <v>28800</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" ref="F68:F74" si="1">C68-D68</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0</v>
+      </c>
       <c r="C69">
         <v>45</v>
       </c>
@@ -2215,8 +2687,15 @@
       <c r="E69">
         <v>29200</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0</v>
+      </c>
       <c r="C70">
         <v>45</v>
       </c>
@@ -2226,8 +2705,15 @@
       <c r="E70">
         <v>29600</v>
       </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0</v>
+      </c>
       <c r="C71">
         <v>45</v>
       </c>
@@ -2237,8 +2723,15 @@
       <c r="E71">
         <v>30000</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
       <c r="C72">
         <v>45</v>
       </c>
@@ -2248,8 +2741,15 @@
       <c r="E72">
         <v>30800</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0</v>
+      </c>
       <c r="C73">
         <v>45</v>
       </c>
@@ -2259,8 +2759,15 @@
       <c r="E73">
         <v>31200</v>
       </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
       <c r="C74">
         <v>45</v>
       </c>
@@ -2269,6 +2776,10 @@
       </c>
       <c r="E74">
         <v>31600</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 6/Data/Run_1.xlsx
+++ b/Lab 6/Data/Run_1.xlsx
@@ -1048,11 +1048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89733376"/>
-        <c:axId val="89739648"/>
+        <c:axId val="98580736"/>
+        <c:axId val="98587008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89733376"/>
+        <c:axId val="98580736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,12 +1081,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89739648"/>
+        <c:crossAx val="98587008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89739648"/>
+        <c:axId val="98587008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -1117,7 +1117,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89733376"/>
+        <c:crossAx val="98580736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
